--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -764,7 +764,7 @@
         <v>26.46268431694229</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.57079613676152</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -814,16 +814,16 @@
         <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621026</v>
+        <v>0.4199934651621025</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134011</v>
+        <v>0.8849458407134014</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971092</v>
+        <v>10.36827052971094</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535643</v>
       </c>
       <c r="S3">
         <v>167.570584904511</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990930688877833</v>
+        <v>0.9909306888778324</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669877</v>
+        <v>0.1679973860669876</v>
       </c>
       <c r="P4">
-        <v>0.920417301749224</v>
+        <v>0.9204173017492242</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404062</v>
+        <v>4.409620443404094</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490685</v>
+        <v>-114.9022326490682</v>
       </c>
       <c r="S4">
         <v>175.2518098001974</v>
@@ -896,49 +896,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390409</v>
+        <v>3.204231799390408</v>
       </c>
       <c r="D5">
-        <v>3.204231799390409</v>
+        <v>3.204231799390408</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848022</v>
       </c>
       <c r="G5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848022</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039776</v>
+        <v>0.952627964803977</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057691</v>
+        <v>0.9526279648057695</v>
       </c>
       <c r="Q5">
-        <v>-1.428725756099227E-11</v>
+        <v>-1.425085711916585E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679124</v>
+        <v>0.9710601884679118</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568291</v>
+        <v>0.08399869303568298</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509391</v>
+        <v>0.9357190172509394</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886345</v>
+        <v>2.248283018886386</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412655</v>
+        <v>-114.9022326412647</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>
@@ -1181,19 +1181,19 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619023</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892723</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694268</v>
+        <v>20.24709464694269</v>
       </c>
       <c r="R3">
         <v>-103.0653321379199</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402619</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1240,19 +1240,19 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114376</v>
+        <v>0.6610662947114373</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612581</v>
+        <v>0.932167159261258</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956704</v>
+        <v>17.32147694956705</v>
       </c>
       <c r="R4">
         <v>-103.5752691854824</v>
       </c>
       <c r="S4">
-        <v>159.8377717076658</v>
+        <v>159.8377717076659</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1278,34 +1278,34 @@
         <v>18.8062902738048</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677861</v>
+        <v>0.5758226890677857</v>
       </c>
       <c r="P5">
-        <v>0.92590843046914</v>
+        <v>0.9259084304691398</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041746</v>
+        <v>15.27863230041748</v>
       </c>
       <c r="R5">
         <v>-104.041078218862</v>
@@ -1358,19 +1358,19 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324067</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541846</v>
+        <v>0.9287977660541845</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350173</v>
+        <v>16.30922779350174</v>
       </c>
       <c r="R6">
         <v>-103.7921223584375</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017223</v>
       </c>
     </row>
   </sheetData>
@@ -1548,19 +1548,19 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619023</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892723</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694268</v>
+        <v>20.24709464694269</v>
       </c>
       <c r="R3">
         <v>-103.0653321379199</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402619</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1607,19 +1607,19 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114376</v>
+        <v>0.6610662947114373</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612581</v>
+        <v>0.932167159261258</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956704</v>
+        <v>17.32147694956705</v>
       </c>
       <c r="R4">
         <v>-103.5752691854824</v>
       </c>
       <c r="S4">
-        <v>159.8377717076658</v>
+        <v>159.8377717076659</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1645,34 +1645,34 @@
         <v>18.8062902738048</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677861</v>
+        <v>0.5758226890677857</v>
       </c>
       <c r="P5">
-        <v>0.92590843046914</v>
+        <v>0.9259084304691398</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041746</v>
+        <v>15.27863230041748</v>
       </c>
       <c r="R5">
         <v>-104.041078218862</v>
@@ -1725,19 +1725,19 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324067</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541846</v>
+        <v>0.9287977660541845</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350173</v>
+        <v>16.30922779350174</v>
       </c>
       <c r="R6">
         <v>-103.7921223584375</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017223</v>
       </c>
     </row>
   </sheetData>
@@ -1856,16 +1856,16 @@
         <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842807</v>
+        <v>0.8804584269842803</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608429</v>
+        <v>0.9495696022608426</v>
       </c>
       <c r="Q2">
-        <v>26.2752802661531</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -1915,16 +1915,16 @@
         <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969649</v>
+        <v>0.5037062977969643</v>
       </c>
       <c r="P3">
-        <v>0.763942555603589</v>
+        <v>0.7639425556035876</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981263</v>
+        <v>12.09779838981259</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215796</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277494</v>
+        <v>0.2014825191277479</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965649</v>
+        <v>0.8174473005965637</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802293</v>
+        <v>5.322483588802227</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833981</v>
+        <v>-121.7925562833989</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855854</v>
+        <v>2.606052819855864</v>
       </c>
       <c r="D5">
-        <v>2.606052819855854</v>
+        <v>2.606052819855864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132333</v>
       </c>
       <c r="G5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132333</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886728</v>
+        <v>0.866025403788673</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890389</v>
+        <v>0.8660254037890379</v>
       </c>
       <c r="Q5">
-        <v>1.923906826059103E-10</v>
+        <v>1.922977185098784E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579176</v>
+        <v>0.8935891429579177</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722661</v>
+        <v>0.1007412595722642</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222771</v>
+        <v>0.8405788745222758</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569131</v>
+        <v>2.746170498569066</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748662</v>
+        <v>-121.7925562748678</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190646</v>
       </c>
     </row>
   </sheetData>
@@ -2223,16 +2223,16 @@
         <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842807</v>
+        <v>0.8804584269842803</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608429</v>
+        <v>0.9495696022608426</v>
       </c>
       <c r="Q2">
-        <v>26.2752802661531</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -2282,16 +2282,16 @@
         <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969649</v>
+        <v>0.5037062977969643</v>
       </c>
       <c r="P3">
-        <v>0.763942555603589</v>
+        <v>0.7639425556035876</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981263</v>
+        <v>12.09779838981259</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215796</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277494</v>
+        <v>0.2014825191277479</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965649</v>
+        <v>0.8174473005965637</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802293</v>
+        <v>5.322483588802227</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833981</v>
+        <v>-121.7925562833989</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855854</v>
+        <v>2.606052819855864</v>
       </c>
       <c r="D5">
-        <v>2.606052819855854</v>
+        <v>2.606052819855864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132333</v>
       </c>
       <c r="G5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132333</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886728</v>
+        <v>0.866025403788673</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890389</v>
+        <v>0.8660254037890379</v>
       </c>
       <c r="Q5">
-        <v>1.923906826059103E-10</v>
+        <v>1.922977185098784E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579176</v>
+        <v>0.8935891429579177</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722661</v>
+        <v>0.1007412595722642</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222771</v>
+        <v>0.8405788745222758</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569131</v>
+        <v>2.746170498569066</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748662</v>
+        <v>-121.7925562748678</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190646</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2649,10 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366209</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217643</v>
       </c>
       <c r="Q3">
         <v>20.67709037248195</v>
@@ -2708,16 +2708,16 @@
         <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251153</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.8567021221551242</v>
+        <v>0.8567021221551234</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872726</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -2731,55 +2731,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289411</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="D5">
-        <v>1.372057420289411</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.8431544189543</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="G5">
-        <v>15.8431544189543</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742621</v>
+        <v>0.9353465602742622</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357802</v>
+        <v>0.4850955530357795</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741076</v>
+        <v>0.8618501377741068</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875886</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339249</v>
+        <v>-99.0448597533926</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2826,19 +2826,19 @@
         <v>0.952011130633677</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011802</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454884</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904605</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -3016,10 +3016,10 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366209</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217643</v>
       </c>
       <c r="Q3">
         <v>20.67709037248195</v>
@@ -3075,16 +3075,16 @@
         <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251153</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.8567021221551242</v>
+        <v>0.8567021221551234</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872726</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -3098,55 +3098,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289411</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="D5">
-        <v>1.372057420289411</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.8431544189543</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="G5">
-        <v>15.8431544189543</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742621</v>
+        <v>0.9353465602742622</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357802</v>
+        <v>0.4850955530357795</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741076</v>
+        <v>0.8618501377741068</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875886</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339249</v>
+        <v>-99.0448597533926</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3193,19 +3193,19 @@
         <v>0.952011130633677</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011802</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454884</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904605</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088182498666576</v>
+        <v>1.100886898541407</v>
       </c>
       <c r="O2">
-        <v>1.100000023842395</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.088760702481778</v>
+        <v>1.100999837689506</v>
       </c>
       <c r="Q2">
-        <v>30.32499034458077</v>
+        <v>29.9665635210196</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6230310441733</v>
+        <v>150.0232444880736</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.036617375607616</v>
+        <v>1.104833779999528</v>
       </c>
       <c r="O3">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>1.043717101339021</v>
+        <v>1.105122100689023</v>
       </c>
       <c r="Q3">
-        <v>31.60737028964078</v>
+        <v>29.83806152846119</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.7648654695831</v>
+        <v>150.1358879691564</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.02669825912136</v>
+        <v>1.105458146351115</v>
       </c>
       <c r="O4">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>1.01986303156694</v>
+        <v>1.107038344560324</v>
       </c>
       <c r="Q4">
-        <v>32.81245849241586</v>
+        <v>29.74189698670476</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>147.7880028172833</v>
+        <v>150.1152740885527</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6067207606382948</v>
+        <v>0.04977135167917101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.005807889549081</v>
+        <v>0.5747100657980183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416799</v>
+        <v>0.9204243569718881</v>
       </c>
       <c r="I5">
-        <v>55.58449235694462</v>
+        <v>-772.1816183316251</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710259</v>
+        <v>0.9743985900789287</v>
       </c>
       <c r="K5">
-        <v>3.291772033565125</v>
+        <v>3.291772033561408</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.9743985902717744</v>
       </c>
       <c r="M5">
-        <v>3.291772033564903</v>
+        <v>3.291772033563673</v>
       </c>
       <c r="N5">
-        <v>1.020341888835465</v>
+        <v>1.105876118989298</v>
       </c>
       <c r="O5">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.003960414439509</v>
+        <v>1.108315919854596</v>
       </c>
       <c r="Q5">
-        <v>33.62863297129309</v>
+        <v>29.67784773526162</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999763</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>147.8040385391567</v>
+        <v>150.1015711034856</v>
       </c>
       <c r="T5">
-        <v>0.6067207606382948</v>
+        <v>0.04977135167917101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.023494112997769</v>
+        <v>1.105666959960218</v>
       </c>
       <c r="O6">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.011911713096153</v>
+        <v>1.107677124287733</v>
       </c>
       <c r="Q6">
-        <v>33.21927853763245</v>
+        <v>29.70986630788682</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.7959576762531</v>
+        <v>150.1084186448197</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088182498666576</v>
+        <v>1.100886898541407</v>
       </c>
       <c r="O2">
-        <v>1.100000023842395</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.088760702481778</v>
+        <v>1.100999837689506</v>
       </c>
       <c r="Q2">
-        <v>30.32499034458077</v>
+        <v>29.9665635210196</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6230310441733</v>
+        <v>150.0232444880736</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.036617375607616</v>
+        <v>1.104833779999528</v>
       </c>
       <c r="O3">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>1.043717101339021</v>
+        <v>1.105122100689023</v>
       </c>
       <c r="Q3">
-        <v>31.60737028964078</v>
+        <v>29.83806152846119</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.7648654695831</v>
+        <v>150.1358879691564</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.02669825912136</v>
+        <v>1.105458146351115</v>
       </c>
       <c r="O4">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>1.01986303156694</v>
+        <v>1.107038344560324</v>
       </c>
       <c r="Q4">
-        <v>32.81245849241586</v>
+        <v>29.74189698670476</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>147.7880028172833</v>
+        <v>150.1152740885527</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6067207606382948</v>
+        <v>0.04977135167917101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.005807889549081</v>
+        <v>0.5747100657980183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416799</v>
+        <v>0.9204243569718881</v>
       </c>
       <c r="I5">
-        <v>55.58449235694462</v>
+        <v>-772.1816183316251</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710259</v>
+        <v>0.9743985900789287</v>
       </c>
       <c r="K5">
-        <v>3.291772033565125</v>
+        <v>3.291772033561408</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.9743985902717744</v>
       </c>
       <c r="M5">
-        <v>3.291772033564903</v>
+        <v>3.291772033563673</v>
       </c>
       <c r="N5">
-        <v>1.020341888835465</v>
+        <v>1.105876118989298</v>
       </c>
       <c r="O5">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.003960414439509</v>
+        <v>1.108315919854596</v>
       </c>
       <c r="Q5">
-        <v>33.62863297129309</v>
+        <v>29.67784773526162</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999763</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>147.8040385391567</v>
+        <v>150.1015711034856</v>
       </c>
       <c r="T5">
-        <v>0.6067207606382948</v>
+        <v>0.04977135167917101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.023494112997769</v>
+        <v>1.105666959960218</v>
       </c>
       <c r="O6">
-        <v>1.1000000238426</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.011911713096153</v>
+        <v>1.107677124287733</v>
       </c>
       <c r="Q6">
-        <v>33.21927853763245</v>
+        <v>29.70986630788682</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.7959576762531</v>
+        <v>150.1084186448197</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090164138862235</v>
+        <v>1.100891067828137</v>
       </c>
       <c r="O2">
-        <v>1.100000023842328</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.092251835294988</v>
+        <v>1.101028458418006</v>
       </c>
       <c r="Q2">
-        <v>30.17292448283469</v>
+        <v>29.96496809428822</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6392372617271</v>
+        <v>150.0226332768692</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047571505396069</v>
+        <v>1.104864548818044</v>
       </c>
       <c r="O3">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.061852201181915</v>
+        <v>1.105275375341202</v>
       </c>
       <c r="Q3">
-        <v>30.7939990357941</v>
+        <v>29.82978770856914</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.9365539194666</v>
+        <v>150.1330920590015</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.037034807492577</v>
+        <v>1.105463476875139</v>
       </c>
       <c r="O4">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.043484698239092</v>
+        <v>1.107220874547113</v>
       </c>
       <c r="Q4">
-        <v>31.63300974759052</v>
+        <v>29.73109309250566</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.7966664112221</v>
+        <v>150.1100570582337</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716506383830386</v>
+        <v>0.05075196210576866</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.446152460678123</v>
+        <v>0.5860331796733446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416799</v>
+        <v>0.9204243569718881</v>
       </c>
       <c r="I5">
-        <v>55.58449235694462</v>
+        <v>-772.1816183316251</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710259</v>
+        <v>0.9743985900789287</v>
       </c>
       <c r="K5">
-        <v>3.291772033565125</v>
+        <v>3.291772033561408</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.9743985902717744</v>
       </c>
       <c r="M5">
-        <v>3.291772033564903</v>
+        <v>3.291772033563673</v>
       </c>
       <c r="N5">
-        <v>1.030135979471448</v>
+        <v>1.105864582873339</v>
       </c>
       <c r="O5">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.031243254471447</v>
+        <v>1.108517973151359</v>
       </c>
       <c r="Q5">
-        <v>32.20180633173352</v>
+        <v>29.6653561996205</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999733</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.7006400663206</v>
+        <v>150.0947453120762</v>
       </c>
       <c r="T5">
-        <v>0.4716506383830386</v>
+        <v>0.05075196210576866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.033572660816929</v>
+        <v>1.105663847943343</v>
       </c>
       <c r="O6">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.037363612137229</v>
+        <v>1.107869413959052</v>
       </c>
       <c r="Q6">
-        <v>31.91645890135119</v>
+        <v>29.69821868415573</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999733</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.7489365293012</v>
+        <v>150.1023967033852</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090164138862235</v>
+        <v>1.100891067828137</v>
       </c>
       <c r="O2">
-        <v>1.100000023842328</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.092251835294988</v>
+        <v>1.101028458418006</v>
       </c>
       <c r="Q2">
-        <v>30.17292448283469</v>
+        <v>29.96496809428822</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6392372617271</v>
+        <v>150.0226332768692</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047571505396069</v>
+        <v>1.104864548818044</v>
       </c>
       <c r="O3">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.061852201181915</v>
+        <v>1.105275375341202</v>
       </c>
       <c r="Q3">
-        <v>30.7939990357941</v>
+        <v>29.82978770856914</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.9365539194666</v>
+        <v>150.1330920590015</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.037034807492577</v>
+        <v>1.105463476875139</v>
       </c>
       <c r="O4">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.043484698239092</v>
+        <v>1.107220874547113</v>
       </c>
       <c r="Q4">
-        <v>31.63300974759052</v>
+        <v>29.73109309250566</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.7966664112221</v>
+        <v>150.1100570582337</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716506383830386</v>
+        <v>0.05075196210576866</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.446152460678123</v>
+        <v>0.5860331796733446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416799</v>
+        <v>0.9204243569718881</v>
       </c>
       <c r="I5">
-        <v>55.58449235694462</v>
+        <v>-772.1816183316251</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710259</v>
+        <v>0.9743985900789287</v>
       </c>
       <c r="K5">
-        <v>3.291772033565125</v>
+        <v>3.291772033561408</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.9743985902717744</v>
       </c>
       <c r="M5">
-        <v>3.291772033564903</v>
+        <v>3.291772033563673</v>
       </c>
       <c r="N5">
-        <v>1.030135979471448</v>
+        <v>1.105864582873339</v>
       </c>
       <c r="O5">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.031243254471447</v>
+        <v>1.108517973151359</v>
       </c>
       <c r="Q5">
-        <v>32.20180633173352</v>
+        <v>29.6653561996205</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999733</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.7006400663206</v>
+        <v>150.0947453120762</v>
       </c>
       <c r="T5">
-        <v>0.4716506383830386</v>
+        <v>0.05075196210576866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.033572660816929</v>
+        <v>1.105663847943343</v>
       </c>
       <c r="O6">
-        <v>1.100000023842607</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.037363612137229</v>
+        <v>1.107869413959052</v>
       </c>
       <c r="Q6">
-        <v>31.91645890135119</v>
+        <v>29.69821868415573</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999733</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.7489365293012</v>
+        <v>150.1023967033852</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9874424629348595</v>
+        <v>1.000914327866663</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997505</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9896852438988816</v>
+        <v>1.001034627028814</v>
       </c>
       <c r="Q2">
-        <v>30.27250819451613</v>
+        <v>29.96182983791525</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.505784648029</v>
+        <v>150.026227897671</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9382939704175104</v>
+        <v>1.004588784582871</v>
       </c>
       <c r="O3">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9531381945786469</v>
+        <v>1.004886450410309</v>
       </c>
       <c r="Q3">
-        <v>31.19285842610258</v>
+        <v>29.8293477487866</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999764</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.3632157491801</v>
+        <v>150.1410658473814</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9309314984247039</v>
+        <v>1.004608368827862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999494</v>
       </c>
       <c r="P4">
-        <v>0.92267011533365</v>
+        <v>1.007160972076148</v>
       </c>
       <c r="Q4">
-        <v>33.04661418822659</v>
+        <v>29.67967755231555</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999976</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>147.7505010128732</v>
+        <v>150.0665116601854</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5366991708749347</v>
+        <v>0.04525867162590697</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.19726821556985</v>
+        <v>0.5226021249276454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089235432</v>
       </c>
       <c r="I5">
-        <v>55.48064066857717</v>
+        <v>-772.1815705054556</v>
       </c>
       <c r="J5">
-        <v>1.779351894040231</v>
+        <v>1.779351893948311</v>
       </c>
       <c r="K5">
-        <v>3.39973087924407</v>
+        <v>3.399730879239166</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351894003467</v>
       </c>
       <c r="M5">
-        <v>3.399730879243808</v>
+        <v>3.399730879243928</v>
       </c>
       <c r="N5">
-        <v>0.9265715309201984</v>
+        <v>1.004625233320753</v>
       </c>
       <c r="O5">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.9023828002404682</v>
+        <v>1.00867826367463</v>
       </c>
       <c r="Q5">
-        <v>34.29796760261716</v>
+        <v>29.57990110449161</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999757</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>148.0232122979767</v>
+        <v>150.0169957187769</v>
       </c>
       <c r="T5">
-        <v>0.5366991708749347</v>
+        <v>0.04525867162590696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9286961391892271</v>
+        <v>1.004616420252888</v>
       </c>
       <c r="O6">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.9125238739661343</v>
+        <v>1.007919523777268</v>
       </c>
       <c r="Q6">
-        <v>33.67082223639747</v>
+        <v>29.62978890966982</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999757</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>147.8853409213086</v>
+        <v>150.041735054527</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9874424629348595</v>
+        <v>1.000914327866663</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997505</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9896852438988816</v>
+        <v>1.001034627028814</v>
       </c>
       <c r="Q2">
-        <v>30.27250819451613</v>
+        <v>29.96182983791525</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.505784648029</v>
+        <v>150.026227897671</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9382939704175104</v>
+        <v>1.004588784582871</v>
       </c>
       <c r="O3">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9531381945786469</v>
+        <v>1.004886450410309</v>
       </c>
       <c r="Q3">
-        <v>31.19285842610258</v>
+        <v>29.8293477487866</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999764</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.3632157491801</v>
+        <v>150.1410658473814</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9309314984247039</v>
+        <v>1.004608368827862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999494</v>
       </c>
       <c r="P4">
-        <v>0.92267011533365</v>
+        <v>1.007160972076148</v>
       </c>
       <c r="Q4">
-        <v>33.04661418822659</v>
+        <v>29.67967755231555</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999976</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>147.7505010128732</v>
+        <v>150.0665116601854</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5366991708749347</v>
+        <v>0.04525867162590697</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.19726821556985</v>
+        <v>0.5226021249276454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089235432</v>
       </c>
       <c r="I5">
-        <v>55.48064066857717</v>
+        <v>-772.1815705054556</v>
       </c>
       <c r="J5">
-        <v>1.779351894040231</v>
+        <v>1.779351893948311</v>
       </c>
       <c r="K5">
-        <v>3.39973087924407</v>
+        <v>3.399730879239166</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351894003467</v>
       </c>
       <c r="M5">
-        <v>3.399730879243808</v>
+        <v>3.399730879243928</v>
       </c>
       <c r="N5">
-        <v>0.9265715309201984</v>
+        <v>1.004625233320753</v>
       </c>
       <c r="O5">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.9023828002404682</v>
+        <v>1.00867826367463</v>
       </c>
       <c r="Q5">
-        <v>34.29796760261716</v>
+        <v>29.57990110449161</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999757</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>148.0232122979767</v>
+        <v>150.0169957187769</v>
       </c>
       <c r="T5">
-        <v>0.5366991708749347</v>
+        <v>0.04525867162590696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9286961391892271</v>
+        <v>1.004616420252888</v>
       </c>
       <c r="O6">
-        <v>1.000000000000388</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.9125238739661343</v>
+        <v>1.007919523777268</v>
       </c>
       <c r="Q6">
-        <v>33.67082223639747</v>
+        <v>29.62978890966982</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999757</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>147.8853409213086</v>
+        <v>150.041735054527</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9899222720308056</v>
+        <v>1.000918433996311</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997149</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>0.9929325593835024</v>
+        <v>1.001064127746707</v>
       </c>
       <c r="Q2">
-        <v>30.13739577770193</v>
+        <v>29.96001465551583</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.5647310441607</v>
+        <v>150.0255220433871</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9507384155214867</v>
+        <v>1.004616954777884</v>
       </c>
       <c r="O3">
-        <v>1.000000000000212</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P3">
-        <v>0.9683640199332482</v>
+        <v>1.005031986594968</v>
       </c>
       <c r="Q3">
-        <v>30.53855371550808</v>
+        <v>29.82067203780489</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.7374361389127</v>
+        <v>150.1380748272572</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9418069756242943</v>
+        <v>1.004583553462782</v>
       </c>
       <c r="O4">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9444263320396143</v>
+        <v>1.007323976003424</v>
       </c>
       <c r="Q4">
-        <v>31.88873107083004</v>
+        <v>29.66807013569272</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999973</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.8567662594382</v>
+        <v>150.0594375947264</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4142522905135304</v>
+        <v>0.0461475750355875</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.783373428808117</v>
+        <v>0.532866297384898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089235432</v>
       </c>
       <c r="I5">
-        <v>55.48064066857717</v>
+        <v>-772.1815705054556</v>
       </c>
       <c r="J5">
-        <v>1.779351894040231</v>
+        <v>1.779351893948311</v>
       </c>
       <c r="K5">
-        <v>3.39973087924407</v>
+        <v>3.399730879239166</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351894003467</v>
       </c>
       <c r="M5">
-        <v>3.399730879243808</v>
+        <v>3.399730879243928</v>
       </c>
       <c r="N5">
-        <v>0.9361477969994402</v>
+        <v>1.004565245153342</v>
       </c>
       <c r="O5">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P5">
-        <v>0.9284702471193644</v>
+        <v>1.008853019113505</v>
       </c>
       <c r="Q5">
-        <v>32.80283255042319</v>
+        <v>29.56633036434834</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999727</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>147.9397378299687</v>
+        <v>150.0072113413128</v>
       </c>
       <c r="T5">
-        <v>0.4142522905135304</v>
+        <v>0.0461475750355875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9389475116883202</v>
+        <v>1.004574003368891</v>
       </c>
       <c r="O6">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9364480441229384</v>
+        <v>1.008088392859753</v>
       </c>
       <c r="Q6">
-        <v>32.34440446827143</v>
+        <v>29.6172007135741</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.8978986078295</v>
+        <v>150.0333046641493</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9899222720308056</v>
+        <v>1.000918433996311</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997149</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>0.9929325593835024</v>
+        <v>1.001064127746707</v>
       </c>
       <c r="Q2">
-        <v>30.13739577770193</v>
+        <v>29.96001465551583</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.5647310441607</v>
+        <v>150.0255220433871</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9507384155214867</v>
+        <v>1.004616954777884</v>
       </c>
       <c r="O3">
-        <v>1.000000000000212</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P3">
-        <v>0.9683640199332482</v>
+        <v>1.005031986594968</v>
       </c>
       <c r="Q3">
-        <v>30.53855371550808</v>
+        <v>29.82067203780489</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.7374361389127</v>
+        <v>150.1380748272572</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9418069756242943</v>
+        <v>1.004583553462782</v>
       </c>
       <c r="O4">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9444263320396143</v>
+        <v>1.007323976003424</v>
       </c>
       <c r="Q4">
-        <v>31.88873107083004</v>
+        <v>29.66807013569272</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999973</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.8567662594382</v>
+        <v>150.0594375947264</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4142522905135304</v>
+        <v>0.0461475750355875</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.783373428808117</v>
+        <v>0.532866297384898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089235432</v>
       </c>
       <c r="I5">
-        <v>55.48064066857717</v>
+        <v>-772.1815705054556</v>
       </c>
       <c r="J5">
-        <v>1.779351894040231</v>
+        <v>1.779351893948311</v>
       </c>
       <c r="K5">
-        <v>3.39973087924407</v>
+        <v>3.399730879239166</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351894003467</v>
       </c>
       <c r="M5">
-        <v>3.399730879243808</v>
+        <v>3.399730879243928</v>
       </c>
       <c r="N5">
-        <v>0.9361477969994402</v>
+        <v>1.004565245153342</v>
       </c>
       <c r="O5">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P5">
-        <v>0.9284702471193644</v>
+        <v>1.008853019113505</v>
       </c>
       <c r="Q5">
-        <v>32.80283255042319</v>
+        <v>29.56633036434834</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999727</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>147.9397378299687</v>
+        <v>150.0072113413128</v>
       </c>
       <c r="T5">
-        <v>0.4142522905135304</v>
+        <v>0.0461475750355875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9389475116883202</v>
+        <v>1.004574003368891</v>
       </c>
       <c r="O6">
-        <v>1.000000000000212</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9364480441229384</v>
+        <v>1.008088392859753</v>
       </c>
       <c r="Q6">
-        <v>32.34440446827143</v>
+        <v>29.6172007135741</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.8978986078295</v>
+        <v>150.0333046641493</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075551088115196</v>
+        <v>1.079077815153588</v>
       </c>
       <c r="O2">
-        <v>0.9618627255198412</v>
+        <v>0.961862725519709</v>
       </c>
       <c r="P2">
-        <v>1.052128995831396</v>
+        <v>1.055562567166425</v>
       </c>
       <c r="Q2">
-        <v>26.54365838510788</v>
+        <v>26.45497198819595</v>
       </c>
       <c r="R2">
-        <v>-91.57079613675758</v>
+        <v>-91.57079613676126</v>
       </c>
       <c r="S2">
-        <v>152.8040751060747</v>
+        <v>152.9047532190705</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.039353773282527</v>
+        <v>1.059723895464552</v>
       </c>
       <c r="O3">
-        <v>0.4199934651620342</v>
+        <v>0.4199934651620715</v>
       </c>
       <c r="P3">
-        <v>0.8667435104917908</v>
+        <v>0.8863541819949811</v>
       </c>
       <c r="Q3">
-        <v>10.47110230010234</v>
+        <v>10.35070588559874</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535177</v>
+        <v>-114.9022326535603</v>
       </c>
       <c r="S3">
-        <v>167.1980870687979</v>
+        <v>167.5860687422675</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9667784786496587</v>
+        <v>0.9926864237663844</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669041</v>
+        <v>0.1679973860669571</v>
       </c>
       <c r="P4">
-        <v>0.895942168664038</v>
+        <v>0.9222345609294965</v>
       </c>
       <c r="Q4">
-        <v>4.641590872666715</v>
+        <v>4.379153805478994</v>
       </c>
       <c r="R4">
-        <v>-114.9022326489118</v>
+        <v>-114.9022326490554</v>
       </c>
       <c r="S4">
-        <v>175.2530284156769</v>
+        <v>175.2367927037319</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.182411750626923</v>
+        <v>3.207784447066349</v>
       </c>
       <c r="D5">
-        <v>3.234338695016246</v>
+        <v>3.200722962944707</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.74732561793365</v>
+        <v>37.04030428032103</v>
       </c>
       <c r="G5">
-        <v>37.34692632436106</v>
+        <v>36.95876528515086</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>0.9246604217284405</v>
+        <v>0.9546618901877005</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9246604217307602</v>
+        <v>0.9546618901895443</v>
       </c>
       <c r="Q5">
-        <v>0.2765061667574988</v>
+        <v>-0.03637314122286605</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.7234938332161</v>
+        <v>179.9636268587982</v>
       </c>
       <c r="T5">
-        <v>0.3301166344060428</v>
+        <v>0.02472633870911299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9450337339566528</v>
+        <v>0.9729516799253681</v>
       </c>
       <c r="O6">
-        <v>0.08399869303559421</v>
+        <v>0.08399869303565251</v>
       </c>
       <c r="P6">
-        <v>0.909426953493857</v>
+        <v>0.9376501858500144</v>
       </c>
       <c r="Q6">
-        <v>2.507672299899645</v>
+        <v>2.214521154404772</v>
       </c>
       <c r="R6">
-        <v>-114.9022326409255</v>
+        <v>-114.9022326412375</v>
       </c>
       <c r="S6">
-        <v>177.8044129472702</v>
+        <v>177.6410659443956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075551088115196</v>
+        <v>1.079077815153588</v>
       </c>
       <c r="O2">
-        <v>0.9618627255198412</v>
+        <v>0.961862725519709</v>
       </c>
       <c r="P2">
-        <v>1.052128995831396</v>
+        <v>1.055562567166425</v>
       </c>
       <c r="Q2">
-        <v>26.54365838510788</v>
+        <v>26.45497198819595</v>
       </c>
       <c r="R2">
-        <v>-91.57079613675758</v>
+        <v>-91.57079613676126</v>
       </c>
       <c r="S2">
-        <v>152.8040751060747</v>
+        <v>152.9047532190705</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.039353773282527</v>
+        <v>1.059723895464552</v>
       </c>
       <c r="O3">
-        <v>0.4199934651620342</v>
+        <v>0.4199934651620715</v>
       </c>
       <c r="P3">
-        <v>0.8667435104917908</v>
+        <v>0.8863541819949811</v>
       </c>
       <c r="Q3">
-        <v>10.47110230010234</v>
+        <v>10.35070588559874</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535177</v>
+        <v>-114.9022326535603</v>
       </c>
       <c r="S3">
-        <v>167.1980870687979</v>
+        <v>167.5860687422675</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9667784786496587</v>
+        <v>0.9926864237663844</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669041</v>
+        <v>0.1679973860669571</v>
       </c>
       <c r="P4">
-        <v>0.895942168664038</v>
+        <v>0.9222345609294965</v>
       </c>
       <c r="Q4">
-        <v>4.641590872666715</v>
+        <v>4.379153805478994</v>
       </c>
       <c r="R4">
-        <v>-114.9022326489118</v>
+        <v>-114.9022326490554</v>
       </c>
       <c r="S4">
-        <v>175.2530284156769</v>
+        <v>175.2367927037319</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.182411750626923</v>
+        <v>3.207784447066349</v>
       </c>
       <c r="D5">
-        <v>3.234338695016246</v>
+        <v>3.200722962944707</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.74732561793365</v>
+        <v>37.04030428032103</v>
       </c>
       <c r="G5">
-        <v>37.34692632436106</v>
+        <v>36.95876528515086</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>0.9246604217284405</v>
+        <v>0.9546618901877005</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9246604217307602</v>
+        <v>0.9546618901895443</v>
       </c>
       <c r="Q5">
-        <v>0.2765061667574988</v>
+        <v>-0.03637314122286605</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.7234938332161</v>
+        <v>179.9636268587982</v>
       </c>
       <c r="T5">
-        <v>0.3301166344060428</v>
+        <v>0.02472633870911299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9450337339566528</v>
+        <v>0.9729516799253681</v>
       </c>
       <c r="O6">
-        <v>0.08399869303559421</v>
+        <v>0.08399869303565251</v>
       </c>
       <c r="P6">
-        <v>0.909426953493857</v>
+        <v>0.9376501858500144</v>
       </c>
       <c r="Q6">
-        <v>2.507672299899645</v>
+        <v>2.214521154404772</v>
       </c>
       <c r="R6">
-        <v>-114.9022326409255</v>
+        <v>-114.9022326412375</v>
       </c>
       <c r="S6">
-        <v>177.8044129472702</v>
+        <v>177.6410659443956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097345697822819</v>
+        <v>1.100505459243115</v>
       </c>
       <c r="O2">
-        <v>1.059278148952348</v>
+        <v>1.059278148952215</v>
       </c>
       <c r="P2">
-        <v>1.077016512366642</v>
+        <v>1.079797721545384</v>
       </c>
       <c r="Q2">
-        <v>28.82710717682828</v>
+        <v>28.75860736428174</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733914</v>
+        <v>-91.28334085733999</v>
       </c>
       <c r="S2">
-        <v>150.5269559774109</v>
+        <v>150.6328845850225</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097554405543907</v>
+        <v>1.114960751425591</v>
       </c>
       <c r="O3">
-        <v>0.9019226052873175</v>
+        <v>0.9019226052871633</v>
       </c>
       <c r="P3">
-        <v>0.9775213127380447</v>
+        <v>0.9920111893570256</v>
       </c>
       <c r="Q3">
-        <v>23.79600172190865</v>
+        <v>23.56409650938471</v>
       </c>
       <c r="R3">
-        <v>-98.66237050195191</v>
+        <v>-98.66237050195733</v>
       </c>
       <c r="S3">
-        <v>152.6701929440041</v>
+        <v>153.2888936969188</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.07379999181634</v>
+        <v>1.0951655913291</v>
       </c>
       <c r="O4">
-        <v>0.8174068168686019</v>
+        <v>0.8174068168684577</v>
       </c>
       <c r="P4">
-        <v>0.9570390299856374</v>
+        <v>0.97804510854209</v>
       </c>
       <c r="Q4">
-        <v>22.06617215964082</v>
+        <v>21.60711347396037</v>
       </c>
       <c r="R4">
-        <v>-98.97748982581943</v>
+        <v>-98.97748982582755</v>
       </c>
       <c r="S4">
-        <v>155.0311057629911</v>
+        <v>155.5951862933048</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.029383669213572</v>
+        <v>1.083790698285557</v>
       </c>
       <c r="D5">
-        <v>1.139498262840996</v>
+        <v>1.068960163915171</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.88629877039721</v>
+        <v>12.51453702800758</v>
       </c>
       <c r="G5">
-        <v>13.15779257584721</v>
+        <v>12.34328876778821</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>1.058527637719332</v>
+        <v>1.082699943627226</v>
       </c>
       <c r="O5">
-        <v>0.7610792363887006</v>
+        <v>0.761079236388563</v>
       </c>
       <c r="P5">
-        <v>0.9443190052701126</v>
+        <v>0.9696353805951995</v>
       </c>
       <c r="Q5">
-        <v>20.87052935980884</v>
+        <v>20.26372191862479</v>
       </c>
       <c r="R5">
-        <v>-99.22644568573375</v>
+        <v>-99.22644568574405</v>
       </c>
       <c r="S5">
-        <v>156.6601459741474</v>
+        <v>157.1679682598687</v>
       </c>
       <c r="T5">
-        <v>0.2867773115515682</v>
+        <v>0.02496771825372386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.066105783056033</v>
+        <v>1.08885794159561</v>
       </c>
       <c r="O6">
-        <v>0.7892411663993002</v>
+        <v>0.7892411663991596</v>
       </c>
       <c r="P6">
-        <v>0.9505829591933569</v>
+        <v>0.9737485223429804</v>
       </c>
       <c r="Q6">
-        <v>21.47263268688078</v>
+        <v>20.93926251890901</v>
       </c>
       <c r="R6">
-        <v>-99.09752580835546</v>
+        <v>-99.09752580836464</v>
       </c>
       <c r="S6">
-        <v>155.8401763879246</v>
+        <v>156.378181571003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097345697822819</v>
+        <v>1.100505459243115</v>
       </c>
       <c r="O2">
-        <v>1.059278148952348</v>
+        <v>1.059278148952215</v>
       </c>
       <c r="P2">
-        <v>1.077016512366642</v>
+        <v>1.079797721545384</v>
       </c>
       <c r="Q2">
-        <v>28.82710717682828</v>
+        <v>28.75860736428174</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733914</v>
+        <v>-91.28334085733999</v>
       </c>
       <c r="S2">
-        <v>150.5269559774109</v>
+        <v>150.6328845850225</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097554405543907</v>
+        <v>1.114960751425591</v>
       </c>
       <c r="O3">
-        <v>0.9019226052873175</v>
+        <v>0.9019226052871633</v>
       </c>
       <c r="P3">
-        <v>0.9775213127380447</v>
+        <v>0.9920111893570256</v>
       </c>
       <c r="Q3">
-        <v>23.79600172190865</v>
+        <v>23.56409650938471</v>
       </c>
       <c r="R3">
-        <v>-98.66237050195191</v>
+        <v>-98.66237050195733</v>
       </c>
       <c r="S3">
-        <v>152.6701929440041</v>
+        <v>153.2888936969188</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.07379999181634</v>
+        <v>1.0951655913291</v>
       </c>
       <c r="O4">
-        <v>0.8174068168686019</v>
+        <v>0.8174068168684577</v>
       </c>
       <c r="P4">
-        <v>0.9570390299856374</v>
+        <v>0.97804510854209</v>
       </c>
       <c r="Q4">
-        <v>22.06617215964082</v>
+        <v>21.60711347396037</v>
       </c>
       <c r="R4">
-        <v>-98.97748982581943</v>
+        <v>-98.97748982582755</v>
       </c>
       <c r="S4">
-        <v>155.0311057629911</v>
+        <v>155.5951862933048</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.029383669213572</v>
+        <v>1.083790698285557</v>
       </c>
       <c r="D5">
-        <v>1.139498262840996</v>
+        <v>1.068960163915171</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.88629877039721</v>
+        <v>12.51453702800758</v>
       </c>
       <c r="G5">
-        <v>13.15779257584721</v>
+        <v>12.34328876778821</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>1.058527637719332</v>
+        <v>1.082699943627226</v>
       </c>
       <c r="O5">
-        <v>0.7610792363887006</v>
+        <v>0.761079236388563</v>
       </c>
       <c r="P5">
-        <v>0.9443190052701126</v>
+        <v>0.9696353805951995</v>
       </c>
       <c r="Q5">
-        <v>20.87052935980884</v>
+        <v>20.26372191862479</v>
       </c>
       <c r="R5">
-        <v>-99.22644568573375</v>
+        <v>-99.22644568574405</v>
       </c>
       <c r="S5">
-        <v>156.6601459741474</v>
+        <v>157.1679682598687</v>
       </c>
       <c r="T5">
-        <v>0.2867773115515682</v>
+        <v>0.02496771825372386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.066105783056033</v>
+        <v>1.08885794159561</v>
       </c>
       <c r="O6">
-        <v>0.7892411663993002</v>
+        <v>0.7892411663991596</v>
       </c>
       <c r="P6">
-        <v>0.9505829591933569</v>
+        <v>0.9737485223429804</v>
       </c>
       <c r="Q6">
-        <v>21.47263268688078</v>
+        <v>20.93926251890901</v>
       </c>
       <c r="R6">
-        <v>-99.09752580835546</v>
+        <v>-99.09752580836464</v>
       </c>
       <c r="S6">
-        <v>155.8401763879246</v>
+        <v>156.378181571003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9894417895616434</v>
+        <v>0.9931734272043271</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842278</v>
+        <v>0.8804584269842753</v>
       </c>
       <c r="P2">
-        <v>0.9465956852315907</v>
+        <v>0.9498307548381864</v>
       </c>
       <c r="Q2">
-        <v>26.34089671717693</v>
+        <v>26.26664590327041</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439209</v>
+        <v>-93.16654538439055</v>
       </c>
       <c r="S2">
-        <v>152.2951818520424</v>
+        <v>152.4317717185977</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003624919910031</v>
+        <v>1.022710099270598</v>
       </c>
       <c r="O3">
-        <v>0.5037062977971406</v>
+        <v>0.5037062977969048</v>
       </c>
       <c r="P3">
-        <v>0.748230665199985</v>
+        <v>0.765265484349735</v>
       </c>
       <c r="Q3">
-        <v>12.11216209479471</v>
+        <v>12.07804834235674</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883252</v>
+        <v>-121.7925562883285</v>
       </c>
       <c r="S3">
-        <v>163.0974571513262</v>
+        <v>163.7506694883963</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9000211221205463</v>
+        <v>0.9247023288943674</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279339</v>
+        <v>0.2014825191276866</v>
       </c>
       <c r="P4">
-        <v>0.7938921376410754</v>
+        <v>0.8191917415449161</v>
       </c>
       <c r="Q4">
-        <v>5.624791457247384</v>
+        <v>5.273809619078277</v>
       </c>
       <c r="R4">
-        <v>-121.792556283393</v>
+        <v>-121.7925562833846</v>
       </c>
       <c r="S4">
-        <v>173.9960993490344</v>
+        <v>173.9557587451033</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.575446075063272</v>
+        <v>2.61131812480372</v>
       </c>
       <c r="D5">
-        <v>2.644481933762517</v>
+        <v>2.600825431538945</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.7386896944229</v>
+        <v>30.15290444590354</v>
       </c>
       <c r="G5">
-        <v>30.53584712649783</v>
+        <v>30.03174526028468</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.8386502577300856</v>
+        <v>0.8679331740332433</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8386502577302992</v>
+        <v>0.8679331740337033</v>
       </c>
       <c r="Q5">
-        <v>0.4531365618960445</v>
+        <v>-0.06644822307202417</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.5468634385058</v>
+        <v>179.9335517765375</v>
       </c>
       <c r="T5">
-        <v>0.2938863174720123</v>
+        <v>0.02247996933287986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8684516010862464</v>
+        <v>0.8953455940181688</v>
       </c>
       <c r="O6">
-        <v>0.1007412595724537</v>
+        <v>0.1007412595722024</v>
       </c>
       <c r="P6">
-        <v>0.8149766320810975</v>
+        <v>0.842415883050297</v>
       </c>
       <c r="Q6">
-        <v>3.130299362446951</v>
+        <v>2.688299507663165</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748627</v>
+        <v>-121.792556274835</v>
       </c>
       <c r="S6">
-        <v>177.3132254182777</v>
+        <v>177.0310835260225</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9894417895616434</v>
+        <v>0.9931734272043271</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842278</v>
+        <v>0.8804584269842753</v>
       </c>
       <c r="P2">
-        <v>0.9465956852315907</v>
+        <v>0.9498307548381864</v>
       </c>
       <c r="Q2">
-        <v>26.34089671717693</v>
+        <v>26.26664590327041</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439209</v>
+        <v>-93.16654538439055</v>
       </c>
       <c r="S2">
-        <v>152.2951818520424</v>
+        <v>152.4317717185977</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003624919910031</v>
+        <v>1.022710099270598</v>
       </c>
       <c r="O3">
-        <v>0.5037062977971406</v>
+        <v>0.5037062977969048</v>
       </c>
       <c r="P3">
-        <v>0.748230665199985</v>
+        <v>0.765265484349735</v>
       </c>
       <c r="Q3">
-        <v>12.11216209479471</v>
+        <v>12.07804834235674</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883252</v>
+        <v>-121.7925562883285</v>
       </c>
       <c r="S3">
-        <v>163.0974571513262</v>
+        <v>163.7506694883963</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9000211221205463</v>
+        <v>0.9247023288943674</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279339</v>
+        <v>0.2014825191276866</v>
       </c>
       <c r="P4">
-        <v>0.7938921376410754</v>
+        <v>0.8191917415449161</v>
       </c>
       <c r="Q4">
-        <v>5.624791457247384</v>
+        <v>5.273809619078277</v>
       </c>
       <c r="R4">
-        <v>-121.792556283393</v>
+        <v>-121.7925562833846</v>
       </c>
       <c r="S4">
-        <v>173.9960993490344</v>
+        <v>173.9557587451033</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.575446075063272</v>
+        <v>2.61131812480372</v>
       </c>
       <c r="D5">
-        <v>2.644481933762517</v>
+        <v>2.600825431538945</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.7386896944229</v>
+        <v>30.15290444590354</v>
       </c>
       <c r="G5">
-        <v>30.53584712649783</v>
+        <v>30.03174526028468</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.8386502577300856</v>
+        <v>0.8679331740332433</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8386502577302992</v>
+        <v>0.8679331740337033</v>
       </c>
       <c r="Q5">
-        <v>0.4531365618960445</v>
+        <v>-0.06644822307202417</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.5468634385058</v>
+        <v>179.9335517765375</v>
       </c>
       <c r="T5">
-        <v>0.2938863174720123</v>
+        <v>0.02247996933287986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8684516010862464</v>
+        <v>0.8953455940181688</v>
       </c>
       <c r="O6">
-        <v>0.1007412595724537</v>
+        <v>0.1007412595722024</v>
       </c>
       <c r="P6">
-        <v>0.8149766320810975</v>
+        <v>0.842415883050297</v>
       </c>
       <c r="Q6">
-        <v>3.130299362446951</v>
+        <v>2.688299507663165</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748627</v>
+        <v>-121.792556274835</v>
       </c>
       <c r="S6">
-        <v>177.3132254182777</v>
+        <v>177.0310835260225</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9985058676867014</v>
+        <v>1.001790290171887</v>
       </c>
       <c r="O2">
-        <v>0.9615729355901718</v>
+        <v>0.9615729355902374</v>
       </c>
       <c r="P2">
-        <v>0.9770390919494852</v>
+        <v>0.979644967728611</v>
       </c>
       <c r="Q2">
-        <v>28.72650724289557</v>
+        <v>28.66766325439479</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889048</v>
+        <v>-91.51132863889003</v>
       </c>
       <c r="S2">
-        <v>150.4858335408853</v>
+        <v>150.6174653469196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002961475005536</v>
+        <v>1.019385443142218</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410125</v>
+        <v>0.8296997009408648</v>
       </c>
       <c r="P3">
-        <v>0.8874675713918958</v>
+        <v>0.8998914335367266</v>
       </c>
       <c r="Q3">
-        <v>23.83775388633856</v>
+        <v>23.6828174835048</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672697</v>
+        <v>-99.17392234672663</v>
       </c>
       <c r="S3">
-        <v>152.2117529279288</v>
+        <v>152.9224395821064</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9627836046602849</v>
+        <v>0.9827890503636597</v>
       </c>
       <c r="O4">
-        <v>0.7246674127322331</v>
+        <v>0.7246674127320855</v>
       </c>
       <c r="P4">
-        <v>0.8752220784084359</v>
+        <v>0.8958705447186336</v>
       </c>
       <c r="Q4">
-        <v>21.94713528176225</v>
+        <v>21.39870524015692</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595183</v>
+        <v>-97.50360857594957</v>
       </c>
       <c r="S4">
-        <v>155.8109919136058</v>
+        <v>156.3144978648238</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8903910326368678</v>
+        <v>0.9337080293873944</v>
       </c>
       <c r="D5">
-        <v>0.9777133855363697</v>
+        <v>0.9192185738412567</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10.28135004753849</v>
+        <v>10.78153164222654</v>
       </c>
       <c r="G5">
-        <v>11.28966172659447</v>
+        <v>10.61422182102707</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.9366221555591177</v>
+        <v>0.959313827930299</v>
       </c>
       <c r="O5">
-        <v>0.6550793552709104</v>
+        <v>0.6550793552707636</v>
       </c>
       <c r="P5">
-        <v>0.8690194829182931</v>
+        <v>0.8949452346214818</v>
       </c>
       <c r="Q5">
-        <v>20.59757018817725</v>
+        <v>19.7808242131597</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652414</v>
+        <v>-96.09329345652019</v>
       </c>
       <c r="S5">
-        <v>158.2605573389836</v>
+        <v>158.5876364541296</v>
       </c>
       <c r="T5">
-        <v>0.2537865578150467</v>
+        <v>0.02269906798851739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9496370305673136</v>
+        <v>0.9709546716567292</v>
       </c>
       <c r="O6">
-        <v>0.6898212699573925</v>
+        <v>0.689821269957245</v>
       </c>
       <c r="P6">
-        <v>0.8719215310744698</v>
+        <v>0.8952317232490962</v>
       </c>
       <c r="Q6">
-        <v>21.2816472764356</v>
+        <v>20.59954346737116</v>
       </c>
       <c r="R6">
-        <v>-96.83401769910684</v>
+        <v>-96.83401769910378</v>
       </c>
       <c r="S6">
-        <v>157.0314185844992</v>
+        <v>157.4504798198192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9985058676867014</v>
+        <v>1.001790290171887</v>
       </c>
       <c r="O2">
-        <v>0.9615729355901718</v>
+        <v>0.9615729355902374</v>
       </c>
       <c r="P2">
-        <v>0.9770390919494852</v>
+        <v>0.979644967728611</v>
       </c>
       <c r="Q2">
-        <v>28.72650724289557</v>
+        <v>28.66766325439479</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889048</v>
+        <v>-91.51132863889003</v>
       </c>
       <c r="S2">
-        <v>150.4858335408853</v>
+        <v>150.6174653469196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002961475005536</v>
+        <v>1.019385443142218</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410125</v>
+        <v>0.8296997009408648</v>
       </c>
       <c r="P3">
-        <v>0.8874675713918958</v>
+        <v>0.8998914335367266</v>
       </c>
       <c r="Q3">
-        <v>23.83775388633856</v>
+        <v>23.6828174835048</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672697</v>
+        <v>-99.17392234672663</v>
       </c>
       <c r="S3">
-        <v>152.2117529279288</v>
+        <v>152.9224395821064</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9627836046602849</v>
+        <v>0.9827890503636597</v>
       </c>
       <c r="O4">
-        <v>0.7246674127322331</v>
+        <v>0.7246674127320855</v>
       </c>
       <c r="P4">
-        <v>0.8752220784084359</v>
+        <v>0.8958705447186336</v>
       </c>
       <c r="Q4">
-        <v>21.94713528176225</v>
+        <v>21.39870524015692</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595183</v>
+        <v>-97.50360857594957</v>
       </c>
       <c r="S4">
-        <v>155.8109919136058</v>
+        <v>156.3144978648238</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8903910326368678</v>
+        <v>0.9337080293873944</v>
       </c>
       <c r="D5">
-        <v>0.9777133855363697</v>
+        <v>0.9192185738412567</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10.28135004753849</v>
+        <v>10.78153164222654</v>
       </c>
       <c r="G5">
-        <v>11.28966172659447</v>
+        <v>10.61422182102707</v>
       </c>
       <c r="H5">
-        <v>13.38798040396462</v>
+        <v>1.767151089234045</v>
       </c>
       <c r="I5">
-        <v>55.48064066857749</v>
+        <v>-772.1815705054551</v>
       </c>
       <c r="J5">
-        <v>1.779351894002785</v>
+        <v>1.779351894044456</v>
       </c>
       <c r="K5">
-        <v>3.399730879261262</v>
+        <v>3.399730879343332</v>
       </c>
       <c r="L5">
-        <v>1.779351893992813</v>
+        <v>1.779351893987073</v>
       </c>
       <c r="M5">
-        <v>3.399730879243338</v>
+        <v>3.399730879253076</v>
       </c>
       <c r="N5">
-        <v>0.9366221555591177</v>
+        <v>0.959313827930299</v>
       </c>
       <c r="O5">
-        <v>0.6550793552709104</v>
+        <v>0.6550793552707636</v>
       </c>
       <c r="P5">
-        <v>0.8690194829182931</v>
+        <v>0.8949452346214818</v>
       </c>
       <c r="Q5">
-        <v>20.59757018817725</v>
+        <v>19.7808242131597</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652414</v>
+        <v>-96.09329345652019</v>
       </c>
       <c r="S5">
-        <v>158.2605573389836</v>
+        <v>158.5876364541296</v>
       </c>
       <c r="T5">
-        <v>0.2537865578150467</v>
+        <v>0.02269906798851739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9496370305673136</v>
+        <v>0.9709546716567292</v>
       </c>
       <c r="O6">
-        <v>0.6898212699573925</v>
+        <v>0.689821269957245</v>
       </c>
       <c r="P6">
-        <v>0.8719215310744698</v>
+        <v>0.8952317232490962</v>
       </c>
       <c r="Q6">
-        <v>21.2816472764356</v>
+        <v>20.59954346737116</v>
       </c>
       <c r="R6">
-        <v>-96.83401769910684</v>
+        <v>-96.83401769910378</v>
       </c>
       <c r="S6">
-        <v>157.0314185844992</v>
+        <v>157.4504798198192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>26.46268431694229</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.57079613676152</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -10600,16 +10600,16 @@
         <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621026</v>
+        <v>0.4199934651621025</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134011</v>
+        <v>0.8849458407134014</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971092</v>
+        <v>10.36827052971094</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535643</v>
       </c>
       <c r="S3">
         <v>167.570584904511</v>
@@ -10656,19 +10656,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990930688877833</v>
+        <v>0.9909306888778324</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669877</v>
+        <v>0.1679973860669876</v>
       </c>
       <c r="P4">
-        <v>0.920417301749224</v>
+        <v>0.9204173017492242</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404062</v>
+        <v>4.409620443404094</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490685</v>
+        <v>-114.9022326490682</v>
       </c>
       <c r="S4">
         <v>175.2518098001974</v>
@@ -10682,49 +10682,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390409</v>
+        <v>3.204231799390408</v>
       </c>
       <c r="D5">
-        <v>3.204231799390409</v>
+        <v>3.204231799390408</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848022</v>
       </c>
       <c r="G5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848022</v>
       </c>
       <c r="H5">
-        <v>6.973515607416722</v>
+        <v>0.9204243569705339</v>
       </c>
       <c r="I5">
-        <v>55.58449235694476</v>
+        <v>-772.1816183316217</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508604</v>
+        <v>0.9743985902936224</v>
       </c>
       <c r="K5">
-        <v>3.29177203354803</v>
+        <v>3.29177203362964</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606811</v>
+        <v>0.9743985902558505</v>
       </c>
       <c r="M5">
-        <v>3.291772033564275</v>
+        <v>3.291772033575218</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039776</v>
+        <v>0.952627964803977</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057691</v>
+        <v>0.9526279648057695</v>
       </c>
       <c r="Q5">
-        <v>-1.428725756099227E-11</v>
+        <v>-1.425085711916585E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679124</v>
+        <v>0.9710601884679118</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568291</v>
+        <v>0.08399869303568298</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509391</v>
+        <v>0.9357190172509394</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886345</v>
+        <v>2.248283018886386</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412655</v>
+        <v>-114.9022326412647</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>
